--- a/KlantenLijstVoorCommunicatie/uitschrijven project.xlsx
+++ b/KlantenLijstVoorCommunicatie/uitschrijven project.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\source\repos\tesprit55555\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\source\repos\tesprit55555\project\VoorbeeldSqlProject\Project\KlantenLijstVoorCommunicatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B970E56-0EB1-4F43-A92E-2A5BAE5D1548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE8E06-6C6B-4E50-A625-E25A9024F3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E55BFB4E-378B-4E52-8F65-DC00262EA031}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{E55BFB4E-378B-4E52-8F65-DC00262EA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>TabelKlant</t>
   </si>
@@ -217,6 +219,60 @@
   </si>
   <si>
     <t>tussentabel</t>
+  </si>
+  <si>
+    <t>Tabel Klantfiche</t>
+  </si>
+  <si>
+    <t>Straat + nr</t>
+  </si>
+  <si>
+    <t>GemeenteId</t>
+  </si>
+  <si>
+    <t>Tabel GemeenteId</t>
+  </si>
+  <si>
+    <t>Gemeente</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Tabel MiddeladresId</t>
+  </si>
+  <si>
+    <t>MiddelcommunicatieId</t>
+  </si>
+  <si>
+    <t>Telefoon</t>
+  </si>
+  <si>
+    <t>Sms</t>
+  </si>
+  <si>
+    <t>Whatsap</t>
+  </si>
+  <si>
+    <t>Tabel StatusKlantId</t>
+  </si>
+  <si>
+    <t>Eigen klant</t>
+  </si>
+  <si>
+    <t>Klant van zwembadbouwer</t>
+  </si>
+  <si>
+    <t>Klant van Zwembadgroothandel</t>
+  </si>
+  <si>
+    <t>StatusId</t>
+  </si>
+  <si>
+    <t>beheerder</t>
   </si>
 </sst>
 </file>
@@ -253,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,14 +317,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -585,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC1A12-D2AE-4D3E-98D9-A0F422EA85FA}">
   <dimension ref="A2:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y32" sqref="A1:Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -991,4 +1140,704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C068FBE-2F9E-4FAB-9649-E9740AF72273}">
+  <dimension ref="A2:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD1204-88F7-4919-BD10-241AA5E70CB1}">
+  <dimension ref="C3:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="6"/>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.45">
+      <c r="D13" s="13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="L22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="5">
+        <v>4</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>